--- a/se/Trabajo Profesional/Disciplinas/Gestión del Proyecto/Plan de Iteración.xlsx
+++ b/se/Trabajo Profesional/Disciplinas/Gestión del Proyecto/Plan de Iteración.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17400" windowHeight="12855" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17400" windowHeight="12855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1ro" sheetId="1" r:id="rId1"/>
     <sheet name="2do" sheetId="2" r:id="rId2"/>
     <sheet name="3ro" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1ro'!$E$1:$E$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2do'!$B$1:$E$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$E$187</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="384">
   <si>
     <t>Documento de Cruce: Proceso – Actividad – CUN.</t>
   </si>
@@ -737,19 +739,448 @@
   </si>
   <si>
     <t>Gestión del Proyecto</t>
+  </si>
+  <si>
+    <t>MN - Plan de Negocio (Preliminar)</t>
+  </si>
+  <si>
+    <t>RE - Documento de Relevamiento (1ra Entrevista)</t>
+  </si>
+  <si>
+    <t>GP - Planificación del proyecto (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Plan de Negocio (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>MN - Descripción de los Procesos de Negocio (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Glosario Organizacional (Preliminar)</t>
+  </si>
+  <si>
+    <t>AC - Plan de Calidad (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Planificación del proyecto (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Plan de Gestión de Riesgos (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Inventario de Habilidades y Recursos (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Documento de Presentacion al Cliente (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Descripción de los Procesos de Negocio (1ra Revision)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Casos de Uso del Negocio (solo diagrama) (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Actividades más relevante (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de contexto (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Identificación de Actores (Preliminar)</t>
+  </si>
+  <si>
+    <t>MN - Plan de Negocio (2da Revisión)</t>
+  </si>
+  <si>
+    <t>MN - Glosario Organizacional (1ra Revision)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Investigación (Preliminar)</t>
+  </si>
+  <si>
+    <t>AC - Plan de Calidad (1ra Revision)</t>
+  </si>
+  <si>
+    <t>AC - Revisión Técnica Formal o por pares (RTF - Template) (Preliminar)</t>
+  </si>
+  <si>
+    <t>AC - Checklist de verificacion (Preliminar)</t>
+  </si>
+  <si>
+    <t>GC - Gestión de Cambio y Configuración</t>
+  </si>
+  <si>
+    <t>GC - Documento de configuración (Preliminar)</t>
+  </si>
+  <si>
+    <t>GC - Documento de trazabilidad (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Planificación del proyecto (2da Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Plan de Gestión de Riesgos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Plan de Iteración (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Inventario de Habilidades y Recursos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Documento de Presentacion al Cliente (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Casos de Uso del Negocio (solo diagrama) (2da Revision)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Actividades más relevante (1ra Revision)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de contexto (Preliminar - 1ra Revision)</t>
+  </si>
+  <si>
+    <t>MN - Identificación de Actores (Preliminar - 1ra Revision)</t>
+  </si>
+  <si>
+    <t>MN - Plan de Negocio (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>MN - Glosario Organizacional (Preliminar - 2da Revision)</t>
+  </si>
+  <si>
+    <t>MN - Documento de Cruce: Proceso – Actividad – CUN (Averiguar)</t>
+  </si>
+  <si>
+    <t>RE - Documento de Relevamiento (2da Entrevista)</t>
+  </si>
+  <si>
+    <t>RE - Especificación de Requerimientos (Preliminar)</t>
+  </si>
+  <si>
+    <t>RE - Especificacion Complementaria (No Funcional) (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Investigación (1ra Revision)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Averiguar)</t>
+  </si>
+  <si>
+    <t>AC - Plan de Calidad (Revision Final)</t>
+  </si>
+  <si>
+    <t>AC - Revision Técnica Formal o por pares (RTF - Template) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AC - Checklist de verificacion (1ra Revision)</t>
+  </si>
+  <si>
+    <t>GC - Documento de configuración (1ra Revision)</t>
+  </si>
+  <si>
+    <t>GC - Documento de trazabilidad (1ra Revision)</t>
+  </si>
+  <si>
+    <t>GP - Planificación del proyecto (3ra Revision)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (2da Revisión y Verificación)</t>
+  </si>
+  <si>
+    <t>GP - Plan de Iteración (1ra Revision)</t>
+  </si>
+  <si>
+    <t>GP - Documento de Alcance (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de Reunion con el cliente (Con lo visto en la iteración anterior)</t>
+  </si>
+  <si>
+    <t>Fuera de alcance</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Nro Iteración</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>TRANSICIÓN</t>
+  </si>
+  <si>
+    <t>MN - Documento de Presentacion al Cliente (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Descripción de los Procesos de Negocio (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Casos de Uso del Negocio (solo diagrama) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de Actividades más relevante (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Diagrama de contexto (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Identificación de Actores (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Glosario Organizacional (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Plan de Negocio (Revisión Final)</t>
+  </si>
+  <si>
+    <t>MN - Documento de Cruce: Proceso – Actividad – CUN (Averiguar) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>RE - Especificación de Requerimientos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>RE - Especificación Complementaria (No Funcional) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Investigación (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Averiguar) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AC - Checklist de verificacion (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GC - Documento de configuración (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GC - Documento de trazabilidad (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Documento de Alcance (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Planificación del proyecto (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de reuniones con el cliente (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>GP - Plan de Iteración (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Modelo de Dominio (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Diagrama de Casos de Uso (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Grueso (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Fino (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Prototipo de Pantallas (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Preliminar)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Clases (Preliminar)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Secuencia (Preliminar)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Datos (DER) (Preliminar)</t>
+  </si>
+  <si>
+    <t>DS - Diagrama de Despliegue (Preliminar)</t>
+  </si>
+  <si>
+    <t>DS - Definición de Arquitectura (General de Software y especifica de componentes) (Preliminar)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de reuniones con el cliente (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Modelo de Dominio (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Diagrama de Casos de Uso (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Grueso (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Fino (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Prototipo de Pantallas (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Clases (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Secuencia (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Datos (DER) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Diagrama de Despliegue (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Definición de Arquitectura (General de Software y especifica de componentes) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de reuniones con el cliente (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Modelo de Dominio (2da Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Diagrama de Casos de Uso (2da Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Grueso (2da Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Fino (2da Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Prototipo de Pantallas (2da Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (2da Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Clases (2da Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Datos (DER) (2da Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Secuencia (2da Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Diagrama de Despliegue (2da Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Definición de Arquitectura (General de Software y especifica de componentes) (2da Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de reuniones con el cliente (2da Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (2da Revisión)</t>
+  </si>
+  <si>
+    <t>SAD (Documento de Arquitectura de Software) (Preliminar)</t>
+  </si>
+  <si>
+    <t>AN - Modelo de Dominio (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Diagrama de Casos de Uso (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Grueso (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Fino (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Prototipo de Pantallas (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Clases (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Secuencia (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Datos (DER) (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Diagrama de Despliegue (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>DS - Definición de Arquitectura (General de Software y especifica de componentes) (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Minuta de reuniones con el cliente (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>GP - Lista de Riesgos (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>SAD (Documento de Arquitectura de Software) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>AN - Modelo de Dominio (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Diagrama de Casos de Uso (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Grueso (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Documento de Casos de Uso del Sistema – Trazo Fino (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Prototipo de Pantallas (Revisión Final)</t>
+  </si>
+  <si>
+    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Revisión Final)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Clases (Revisión Final)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Diseño de Secuencia (Revisión Final)</t>
+  </si>
+  <si>
+    <t>DS - Modelo de Datos (DER) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>DS - Diagrama de Despliegue (Revisión Final)</t>
+  </si>
+  <si>
+    <t>DS - Definición de Arquitectura (General de Software y especifica de componentes) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>SAD (Documento de Arquitectura de Software) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Revisión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00\ &quot;€&quot;_);_(* \(#,##0.00\)\ &quot;€&quot;;_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0\ &quot;€&quot;_);_(* \(#,##0\)\ &quot;€&quot;;_(&quot;€&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,14 +1220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,8 +1272,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -857,11 +1332,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -895,6 +1407,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,11 +1417,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -916,13 +1429,86 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1243,16 +1829,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>40997.375</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>41004.791666666664</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1260,41 +1846,41 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>41005.375</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>41011.958333333336</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1302,77 +1888,77 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16">
         <v>3</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <v>41011.791666666664</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>41017.833333333336</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1380,176 +1966,176 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16">
         <v>4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
         <v>41018.791666666664</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="14">
         <v>41025.833333333336</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -1557,172 +2143,172 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="6" t="s">
         <v>51</v>
       </c>
@@ -1754,7 +2340,7 @@
   <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1784,10 +2370,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="17">
@@ -1801,8 +2387,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="10" t="s">
@@ -1810,8 +2396,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="11" t="s">
@@ -1819,8 +2405,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="10" t="s">
@@ -1828,8 +2414,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="11" t="s">
@@ -1837,8 +2423,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="10" t="s">
@@ -1846,8 +2432,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="10" t="s">
@@ -1855,8 +2441,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="17">
@@ -1870,8 +2456,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="10" t="s">
@@ -1879,8 +2465,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="10" t="s">
@@ -1888,8 +2474,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="10" t="s">
@@ -1897,8 +2483,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="11" t="s">
@@ -1906,8 +2492,8 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="10" t="s">
@@ -1915,8 +2501,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="11" t="s">
@@ -1924,8 +2510,8 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="10" t="s">
@@ -1933,8 +2519,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="10" t="s">
@@ -1942,8 +2528,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="10" t="s">
@@ -1951,8 +2537,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="10" t="s">
@@ -1960,8 +2546,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="10" t="s">
@@ -1969,8 +2555,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="17">
@@ -1984,8 +2570,8 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="10" t="s">
@@ -1993,8 +2579,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="10" t="s">
@@ -2002,8 +2588,8 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="10" t="s">
@@ -2011,8 +2597,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="10" t="s">
@@ -2020,8 +2606,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="10" t="s">
@@ -2029,8 +2615,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="10" t="s">
@@ -2038,8 +2624,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="10" t="s">
@@ -2047,8 +2633,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="11" t="s">
@@ -2056,8 +2642,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="10" t="s">
@@ -2065,8 +2651,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="11" t="s">
@@ -2074,8 +2660,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="10" t="s">
@@ -2083,8 +2669,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="10" t="s">
@@ -2092,8 +2678,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="10" t="s">
@@ -2101,8 +2687,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="11" t="s">
@@ -2110,8 +2696,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="10" t="s">
@@ -2119,8 +2705,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="10" t="s">
@@ -2128,8 +2714,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="10" t="s">
@@ -2137,8 +2723,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="10" t="s">
@@ -2146,8 +2732,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="10" t="s">
@@ -2155,8 +2741,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="10" t="s">
@@ -2164,8 +2750,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="11" t="s">
@@ -2173,8 +2759,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="10" t="s">
@@ -2182,8 +2768,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="10" t="s">
@@ -2191,8 +2777,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="17">
@@ -2206,8 +2792,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="10" t="s">
@@ -2215,8 +2801,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="10" t="s">
@@ -2224,8 +2810,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="18"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="10" t="s">
@@ -2233,8 +2819,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="10" t="s">
@@ -2242,8 +2828,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="18"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="10" t="s">
@@ -2251,8 +2837,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="10" t="s">
@@ -2260,8 +2846,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="10" t="s">
@@ -2269,8 +2855,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="18"/>
-      <c r="B53" s="16"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="10" t="s">
@@ -2278,8 +2864,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="11" t="s">
@@ -2287,8 +2873,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="10" t="s">
@@ -2296,8 +2882,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="18"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="10" t="s">
@@ -2305,8 +2891,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="10" t="s">
@@ -2314,8 +2900,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="11" t="s">
@@ -2323,8 +2909,8 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="18"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="10" t="s">
@@ -2332,8 +2918,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="18"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="10" t="s">
@@ -2341,8 +2927,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60">
-      <c r="A61" s="18"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="10" t="s">
@@ -2350,8 +2936,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="11" t="s">
@@ -2359,8 +2945,8 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="18"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="10" t="s">
@@ -2368,8 +2954,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="18"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="10" t="s">
@@ -2377,8 +2963,8 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="10" t="s">
@@ -2386,8 +2972,8 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="11" t="s">
@@ -2395,8 +2981,8 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="10" t="s">
@@ -2404,8 +2990,8 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="18"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="10" t="s">
@@ -2413,8 +2999,8 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="18"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="10" t="s">
@@ -2422,8 +3008,8 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="18"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="10" t="s">
@@ -2431,8 +3017,8 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="18"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="10" t="s">
@@ -2440,8 +3026,8 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="18"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="10" t="s">
@@ -2449,8 +3035,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="18"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="10" t="s">
@@ -2458,8 +3044,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="18"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="11" t="s">
@@ -2467,8 +3053,8 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="18"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="10" t="s">
@@ -2476,8 +3062,8 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="18"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="10" t="s">
@@ -2485,8 +3071,8 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="18"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="10" t="s">
@@ -2494,8 +3080,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="18"/>
-      <c r="B78" s="16" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C78" s="17">
@@ -2509,8 +3095,8 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="18"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="10" t="s">
@@ -2518,8 +3104,8 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="18"/>
-      <c r="B80" s="16"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="10" t="s">
@@ -2527,8 +3113,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="30">
-      <c r="A81" s="18"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="10" t="s">
@@ -2536,8 +3122,8 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="18"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="10" t="s">
@@ -2545,8 +3131,8 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="18"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="10" t="s">
@@ -2554,8 +3140,8 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="18"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="10" t="s">
@@ -2563,8 +3149,8 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="18"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="10" t="s">
@@ -2572,8 +3158,8 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="18"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="10" t="s">
@@ -2581,8 +3167,8 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="18"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="11" t="s">
@@ -2590,8 +3176,8 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="18"/>
-      <c r="B88" s="16"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="10" t="s">
@@ -2599,8 +3185,8 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="18"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
       <c r="E89" s="10" t="s">
@@ -2608,8 +3194,8 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="18"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
       <c r="E90" s="10" t="s">
@@ -2617,8 +3203,8 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="18"/>
-      <c r="B91" s="16"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="11" t="s">
@@ -2626,8 +3212,8 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="18"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="10" t="s">
@@ -2635,8 +3221,8 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="18"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="10" t="s">
@@ -2644,8 +3230,8 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="18"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="10" t="s">
@@ -2653,8 +3239,8 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="18"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="10" t="s">
@@ -2662,8 +3248,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="60">
-      <c r="A96" s="18"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="10" t="s">
@@ -2671,8 +3257,8 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="18"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="11" t="s">
@@ -2680,8 +3266,8 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="18"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="10" t="s">
@@ -2689,8 +3275,8 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="18"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="11" t="s">
@@ -2698,8 +3284,8 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="18"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="10" t="s">
@@ -2707,8 +3293,8 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="18"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="10" t="s">
@@ -2716,8 +3302,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="30">
-      <c r="A102" s="18"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="10" t="s">
@@ -2725,8 +3311,8 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="18"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="10" t="s">
@@ -2734,8 +3320,8 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="18"/>
-      <c r="B104" s="16"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
       <c r="E104" s="10" t="s">
@@ -2743,8 +3329,8 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="18"/>
-      <c r="B105" s="16"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
       <c r="E105" s="10" t="s">
@@ -2752,8 +3338,8 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="18"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="10" t="s">
@@ -2761,8 +3347,8 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="18"/>
-      <c r="B107" s="16"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="11" t="s">
@@ -2770,8 +3356,8 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="18"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
       <c r="E108" s="10" t="s">
@@ -2779,8 +3365,8 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="18"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
       <c r="E109" s="10" t="s">
@@ -2788,8 +3374,8 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="18"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="10" t="s">
@@ -2797,8 +3383,8 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="18"/>
-      <c r="B111" s="16"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
       <c r="E111" s="12" t="s">
@@ -2806,10 +3392,10 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C112" s="17">
@@ -2823,8 +3409,8 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="19"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
       <c r="E113" s="10" t="s">
@@ -2832,8 +3418,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="30">
-      <c r="A114" s="19"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
       <c r="E114" s="10" t="s">
@@ -2841,8 +3427,8 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="19"/>
-      <c r="B115" s="16"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
       <c r="E115" s="10" t="s">
@@ -2850,8 +3436,8 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="19"/>
-      <c r="B116" s="16"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
       <c r="E116" s="10" t="s">
@@ -2859,8 +3445,8 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="19"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
       <c r="E117" s="10" t="s">
@@ -2868,8 +3454,8 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="19"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="10" t="s">
@@ -2877,8 +3463,8 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="19"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
       <c r="E119" s="10" t="s">
@@ -2886,8 +3472,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="45">
-      <c r="A120" s="19"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="10" t="s">
@@ -2895,8 +3481,8 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="19"/>
-      <c r="B121" s="16"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="11" t="s">
@@ -2904,8 +3490,8 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="19"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
       <c r="E122" s="10" t="s">
@@ -2913,8 +3499,8 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="19"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="10" t="s">
@@ -2922,8 +3508,8 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="19"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="10" t="s">
@@ -2931,8 +3517,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="30">
-      <c r="A125" s="19"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="10" t="s">
@@ -2940,8 +3526,8 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="19"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="11" t="s">
@@ -2949,8 +3535,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
-      <c r="A127" s="19"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
       <c r="E127" s="10" t="s">
@@ -2958,8 +3544,8 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="19"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
       <c r="E128" s="10" t="s">
@@ -2967,8 +3553,8 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="19"/>
-      <c r="B129" s="16" t="s">
+      <c r="A129" s="20"/>
+      <c r="B129" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="17">
@@ -2982,8 +3568,8 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="19"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="10" t="s">
@@ -2991,8 +3577,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
-      <c r="A131" s="19"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="10" t="s">
@@ -3000,8 +3586,8 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="19"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
       <c r="E132" s="10" t="s">
@@ -3009,8 +3595,8 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="19"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
       <c r="E133" s="10" t="s">
@@ -3018,8 +3604,8 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="19"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
       <c r="E134" s="10" t="s">
@@ -3027,8 +3613,8 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="19"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
       <c r="E135" s="10" t="s">
@@ -3036,8 +3622,8 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="19"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
       <c r="E136" s="10" t="s">
@@ -3045,8 +3631,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
-      <c r="A137" s="19"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
       <c r="E137" s="10" t="s">
@@ -3054,8 +3640,8 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="19"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
       <c r="E138" s="11" t="s">
@@ -3063,8 +3649,8 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="19"/>
-      <c r="B139" s="16"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
       <c r="E139" s="10" t="s">
@@ -3072,8 +3658,8 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="19"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
       <c r="E140" s="10" t="s">
@@ -3081,8 +3667,8 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="19"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
       <c r="E141" s="10" t="s">
@@ -3090,8 +3676,8 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="19"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="10" t="s">
@@ -3099,8 +3685,8 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="19"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="10" t="s">
@@ -3108,8 +3694,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
-      <c r="A144" s="19"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
       <c r="E144" s="10" t="s">
@@ -3117,8 +3703,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="19"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
       <c r="E145" s="11" t="s">
@@ -3126,8 +3712,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
-      <c r="A146" s="19"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
       <c r="E146" s="10" t="s">
@@ -3135,8 +3721,8 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="19"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
       <c r="E147" s="10" t="s">
@@ -3144,8 +3730,8 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="19"/>
-      <c r="B148" s="16" t="s">
+      <c r="A148" s="20"/>
+      <c r="B148" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C148" s="17">
@@ -3159,8 +3745,8 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="19"/>
-      <c r="B149" s="16"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
       <c r="E149" s="10" t="s">
@@ -3168,8 +3754,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
-      <c r="A150" s="19"/>
-      <c r="B150" s="16"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="10" t="s">
@@ -3177,8 +3763,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="30">
-      <c r="A151" s="19"/>
-      <c r="B151" s="16"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="10" t="s">
@@ -3186,8 +3772,8 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="19"/>
-      <c r="B152" s="16"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
       <c r="E152" s="10" t="s">
@@ -3195,8 +3781,8 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="19"/>
-      <c r="B153" s="16"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
       <c r="E153" s="10" t="s">
@@ -3204,8 +3790,8 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="19"/>
-      <c r="B154" s="16"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="10" t="s">
@@ -3213,8 +3799,8 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="19"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
       <c r="E155" s="10" t="s">
@@ -3222,8 +3808,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="45">
-      <c r="A156" s="19"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="10" t="s">
@@ -3231,8 +3817,8 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="19"/>
-      <c r="B157" s="16"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="11" t="s">
@@ -3240,8 +3826,8 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="19"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
       <c r="E158" s="10" t="s">
@@ -3249,8 +3835,8 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="19"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="10" t="s">
@@ -3258,8 +3844,8 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="19"/>
-      <c r="B160" s="16"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
       <c r="E160" s="10" t="s">
@@ -3267,8 +3853,8 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="19"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
       <c r="E161" s="10" t="s">
@@ -3276,8 +3862,8 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="19"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
       <c r="E162" s="10" t="s">
@@ -3285,8 +3871,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="30">
-      <c r="A163" s="19"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
       <c r="E163" s="10" t="s">
@@ -3294,8 +3880,8 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="19"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="E164" s="11" t="s">
@@ -3303,8 +3889,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="30">
-      <c r="A165" s="19"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
       <c r="E165" s="10" t="s">
@@ -3312,8 +3898,8 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="19"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
       <c r="E166" s="10" t="s">
@@ -3321,8 +3907,8 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="19"/>
-      <c r="B167" s="16" t="s">
+      <c r="A167" s="20"/>
+      <c r="B167" s="18" t="s">
         <v>154</v>
       </c>
       <c r="C167" s="17">
@@ -3336,8 +3922,8 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="19"/>
-      <c r="B168" s="16"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
       <c r="E168" s="10" t="s">
@@ -3345,8 +3931,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
-      <c r="A169" s="19"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
       <c r="E169" s="10" t="s">
@@ -3354,8 +3940,8 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="19"/>
-      <c r="B170" s="16"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
       <c r="E170" s="10" t="s">
@@ -3363,8 +3949,8 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="19"/>
-      <c r="B171" s="16"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
       <c r="E171" s="10" t="s">
@@ -3372,8 +3958,8 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="19"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
       <c r="E172" s="10" t="s">
@@ -3381,8 +3967,8 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="19"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
       <c r="E173" s="10" t="s">
@@ -3390,8 +3976,8 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="19"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="10" t="s">
@@ -3399,8 +3985,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="45">
-      <c r="A175" s="19"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
       <c r="E175" s="10" t="s">
@@ -3408,8 +3994,8 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="19"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
       <c r="E176" s="11" t="s">
@@ -3417,8 +4003,8 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="19"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
       <c r="E177" s="10" t="s">
@@ -3426,8 +4012,8 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="19"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
       <c r="E178" s="10" t="s">
@@ -3435,8 +4021,8 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="19"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
       <c r="E179" s="10" t="s">
@@ -3444,8 +4030,8 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="19"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
       <c r="E180" s="10" t="s">
@@ -3453,8 +4039,8 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="19"/>
-      <c r="B181" s="16"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="17"/>
       <c r="D181" s="17"/>
       <c r="E181" s="10" t="s">
@@ -3462,8 +4048,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="30">
-      <c r="A182" s="19"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
       <c r="E182" s="10" t="s">
@@ -3471,8 +4057,8 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="19"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="17"/>
       <c r="D183" s="17"/>
       <c r="E183" s="11" t="s">
@@ -3480,8 +4066,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="30">
-      <c r="A184" s="19"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
       <c r="E184" s="10" t="s">
@@ -3489,8 +4075,8 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="19"/>
-      <c r="B185" s="16"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="17"/>
       <c r="D185" s="17"/>
       <c r="E185" s="10" t="s">
@@ -3498,8 +4084,8 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="19"/>
-      <c r="B186" s="16"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="17"/>
       <c r="D186" s="17"/>
       <c r="E186" s="10" t="s">
@@ -3507,8 +4093,8 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="19"/>
-      <c r="B187" s="16" t="s">
+      <c r="A187" s="20"/>
+      <c r="B187" s="18" t="s">
         <v>168</v>
       </c>
       <c r="C187" s="17">
@@ -3522,8 +4108,8 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="19"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="17"/>
       <c r="D188" s="17"/>
       <c r="E188" s="10" t="s">
@@ -3531,8 +4117,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="30">
-      <c r="A189" s="19"/>
-      <c r="B189" s="16"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
       <c r="E189" s="10" t="s">
@@ -3540,8 +4126,8 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="19"/>
-      <c r="B190" s="16"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="17"/>
       <c r="D190" s="17"/>
       <c r="E190" s="10" t="s">
@@ -3549,8 +4135,8 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="19"/>
-      <c r="B191" s="16"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
       <c r="E191" s="10" t="s">
@@ -3558,8 +4144,8 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="19"/>
-      <c r="B192" s="16"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
       <c r="E192" s="10" t="s">
@@ -3567,8 +4153,8 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="19"/>
-      <c r="B193" s="16"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
       <c r="E193" s="10" t="s">
@@ -3576,8 +4162,8 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="19"/>
-      <c r="B194" s="16"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="17"/>
       <c r="D194" s="17"/>
       <c r="E194" s="10" t="s">
@@ -3585,8 +4171,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="45">
-      <c r="A195" s="19"/>
-      <c r="B195" s="16"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="17"/>
       <c r="D195" s="17"/>
       <c r="E195" s="10" t="s">
@@ -3594,8 +4180,8 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="19"/>
-      <c r="B196" s="16"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="17"/>
       <c r="D196" s="17"/>
       <c r="E196" s="11" t="s">
@@ -3603,8 +4189,8 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="19"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="17"/>
       <c r="D197" s="17"/>
       <c r="E197" s="10" t="s">
@@ -3612,8 +4198,8 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="19"/>
-      <c r="B198" s="16"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
       <c r="E198" s="10" t="s">
@@ -3621,8 +4207,8 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="19"/>
-      <c r="B199" s="16"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
       <c r="E199" s="10" t="s">
@@ -3630,8 +4216,8 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="19"/>
-      <c r="B200" s="16"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="17"/>
       <c r="D200" s="17"/>
       <c r="E200" s="10" t="s">
@@ -3639,8 +4225,8 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="19"/>
-      <c r="B201" s="16"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="17"/>
       <c r="D201" s="17"/>
       <c r="E201" s="10" t="s">
@@ -3648,8 +4234,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="30">
-      <c r="A202" s="19"/>
-      <c r="B202" s="16"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
       <c r="E202" s="10" t="s">
@@ -3657,8 +4243,8 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="19"/>
-      <c r="B203" s="16"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="17"/>
       <c r="D203" s="17"/>
       <c r="E203" s="11" t="s">
@@ -3666,8 +4252,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="30">
-      <c r="A204" s="19"/>
-      <c r="B204" s="16"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
       <c r="E204" s="10" t="s">
@@ -3675,8 +4261,8 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="19"/>
-      <c r="B205" s="16"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="17"/>
       <c r="D205" s="17"/>
       <c r="E205" s="10" t="s">
@@ -3684,8 +4270,8 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="19"/>
-      <c r="B206" s="16"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="17"/>
       <c r="D206" s="17"/>
       <c r="E206" s="10" t="s">
@@ -3693,8 +4279,8 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="19"/>
-      <c r="B207" s="16" t="s">
+      <c r="A207" s="20"/>
+      <c r="B207" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C207" s="17">
@@ -3708,8 +4294,8 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="19"/>
-      <c r="B208" s="16"/>
+      <c r="A208" s="20"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
       <c r="E208" s="10" t="s">
@@ -3717,8 +4303,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="30">
-      <c r="A209" s="19"/>
-      <c r="B209" s="16"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
       <c r="E209" s="10" t="s">
@@ -3726,8 +4312,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" ht="30">
-      <c r="A210" s="19"/>
-      <c r="B210" s="16"/>
+      <c r="A210" s="20"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
       <c r="E210" s="10" t="s">
@@ -3735,8 +4321,8 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="19"/>
-      <c r="B211" s="16"/>
+      <c r="A211" s="20"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
       <c r="E211" s="10" t="s">
@@ -3744,8 +4330,8 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="19"/>
-      <c r="B212" s="16"/>
+      <c r="A212" s="20"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
       <c r="E212" s="10" t="s">
@@ -3753,8 +4339,8 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="19"/>
-      <c r="B213" s="16"/>
+      <c r="A213" s="20"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
       <c r="E213" s="10" t="s">
@@ -3762,8 +4348,8 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="19"/>
-      <c r="B214" s="16"/>
+      <c r="A214" s="20"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
       <c r="E214" s="10" t="s">
@@ -3771,8 +4357,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="45">
-      <c r="A215" s="19"/>
-      <c r="B215" s="16"/>
+      <c r="A215" s="20"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
       <c r="E215" s="10" t="s">
@@ -3780,8 +4366,8 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="19"/>
-      <c r="B216" s="16"/>
+      <c r="A216" s="20"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
       <c r="E216" s="11" t="s">
@@ -3789,8 +4375,8 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="19"/>
-      <c r="B217" s="16"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
       <c r="E217" s="10" t="s">
@@ -3798,8 +4384,8 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="19"/>
-      <c r="B218" s="16"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
       <c r="E218" s="10" t="s">
@@ -3807,8 +4393,8 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="19"/>
-      <c r="B219" s="16"/>
+      <c r="A219" s="20"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
       <c r="E219" s="10" t="s">
@@ -3816,8 +4402,8 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="19"/>
-      <c r="B220" s="16"/>
+      <c r="A220" s="20"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="17"/>
       <c r="D220" s="17"/>
       <c r="E220" s="10" t="s">
@@ -3825,8 +4411,8 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="19"/>
-      <c r="B221" s="16"/>
+      <c r="A221" s="20"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="17"/>
       <c r="D221" s="17"/>
       <c r="E221" s="10" t="s">
@@ -3834,8 +4420,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="30">
-      <c r="A222" s="19"/>
-      <c r="B222" s="16"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
       <c r="E222" s="10" t="s">
@@ -3843,8 +4429,8 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="19"/>
-      <c r="B223" s="16"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="17"/>
       <c r="D223" s="17"/>
       <c r="E223" s="11" t="s">
@@ -3852,8 +4438,8 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
-      <c r="A224" s="19"/>
-      <c r="B224" s="16"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="18"/>
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
       <c r="E224" s="10" t="s">
@@ -3861,8 +4447,8 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="19"/>
-      <c r="B225" s="16"/>
+      <c r="A225" s="20"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
       <c r="E225" s="10" t="s">
@@ -3870,8 +4456,8 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="19"/>
-      <c r="B226" s="16"/>
+      <c r="A226" s="20"/>
+      <c r="B226" s="18"/>
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
       <c r="E226" s="10" t="s">
@@ -3879,8 +4465,8 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="19"/>
-      <c r="B227" s="16"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
       <c r="E227" s="12" t="s">
@@ -3893,25 +4479,6 @@
     <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="C45:C77"/>
-    <mergeCell ref="D45:D77"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="B21:B44"/>
-    <mergeCell ref="B45:B77"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="C21:C44"/>
-    <mergeCell ref="D21:D44"/>
-    <mergeCell ref="D148:D166"/>
-    <mergeCell ref="B78:B111"/>
-    <mergeCell ref="C78:C111"/>
-    <mergeCell ref="D78:D111"/>
-    <mergeCell ref="B112:B128"/>
-    <mergeCell ref="C112:C128"/>
-    <mergeCell ref="D112:D128"/>
     <mergeCell ref="B207:B227"/>
     <mergeCell ref="C207:C227"/>
     <mergeCell ref="D207:D227"/>
@@ -3928,6 +4495,25 @@
     <mergeCell ref="D129:D147"/>
     <mergeCell ref="B148:B166"/>
     <mergeCell ref="C148:C166"/>
+    <mergeCell ref="D148:D166"/>
+    <mergeCell ref="B78:B111"/>
+    <mergeCell ref="C78:C111"/>
+    <mergeCell ref="D78:D111"/>
+    <mergeCell ref="B112:B128"/>
+    <mergeCell ref="C112:C128"/>
+    <mergeCell ref="D112:D128"/>
+    <mergeCell ref="C45:C77"/>
+    <mergeCell ref="D45:D77"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="B21:B44"/>
+    <mergeCell ref="B45:B77"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="C21:C44"/>
+    <mergeCell ref="D21:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3938,7 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -3953,10 +4539,10 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="13">
         <v>40997.375</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -3964,10 +4550,10 @@
       <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>40997.375</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>41032.875</v>
       </c>
     </row>
@@ -3975,10 +4561,10 @@
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>40997.375</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>41004.958333333336</v>
       </c>
     </row>
@@ -3986,10 +4572,10 @@
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>40997.375</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>41000.791666666664</v>
       </c>
     </row>
@@ -3997,10 +4583,10 @@
       <c r="A5" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>40997.375</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>41000.791666666664</v>
       </c>
     </row>
@@ -4008,10 +4594,10 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="13">
         <v>41000.791666666664</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="13">
         <v>41002.833333333336</v>
       </c>
     </row>
@@ -4019,10 +4605,10 @@
       <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="13">
         <v>41000.791666666664</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="13">
         <v>41002.833333333336</v>
       </c>
     </row>
@@ -4030,10 +4616,10 @@
       <c r="A8" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="13">
         <v>40999.375</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="13">
         <v>41004.958333333336</v>
       </c>
     </row>
@@ -4041,10 +4627,10 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="13">
         <v>40999.375</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>41004.958333333336</v>
       </c>
     </row>
@@ -4052,10 +4638,10 @@
       <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="13">
         <v>41005.375</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="13">
         <v>41011.791666666664</v>
       </c>
     </row>
@@ -4063,10 +4649,10 @@
       <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="13">
         <v>41005.375</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <v>41008.916666666664</v>
       </c>
     </row>
@@ -4074,10 +4660,10 @@
       <c r="A12" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="13">
         <v>41005.375</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>41007.5</v>
       </c>
     </row>
@@ -4085,10 +4671,10 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="13">
         <v>41007.708333333336</v>
       </c>
     </row>
@@ -4096,10 +4682,10 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="13">
         <v>41008.375</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="13">
         <v>41008.916666666664</v>
       </c>
     </row>
@@ -4107,10 +4693,10 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="13">
         <v>41011.791666666664</v>
       </c>
     </row>
@@ -4118,10 +4704,10 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="13">
         <v>41011.791666666664</v>
       </c>
     </row>
@@ -4129,10 +4715,10 @@
       <c r="A17" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="13">
         <v>41009.916666666664</v>
       </c>
     </row>
@@ -4140,10 +4726,10 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="13">
         <v>41007.583333333336</v>
       </c>
     </row>
@@ -4151,10 +4737,10 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="13">
         <v>41007.708333333336</v>
       </c>
     </row>
@@ -4162,10 +4748,10 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>41009.833333333336</v>
       </c>
     </row>
@@ -4173,10 +4759,10 @@
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="13">
         <v>41007.375</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="13">
         <v>41009.916666666664</v>
       </c>
     </row>
@@ -4184,10 +4770,10 @@
       <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="13">
         <v>41018.833333333336</v>
       </c>
     </row>
@@ -4195,10 +4781,10 @@
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="13">
         <v>41014.583333333336</v>
       </c>
     </row>
@@ -4206,10 +4792,10 @@
       <c r="A24" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="13">
         <v>41012.791666666664</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="13">
         <v>41013.583333333336</v>
       </c>
     </row>
@@ -4217,10 +4803,10 @@
       <c r="A25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="13">
         <v>41012.791666666664</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="13">
         <v>41013.583333333336</v>
       </c>
     </row>
@@ -4228,10 +4814,10 @@
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="13">
         <v>41013.583333333336</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="13">
         <v>41013.75</v>
       </c>
     </row>
@@ -4239,10 +4825,10 @@
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="13">
         <v>41013.75</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="13">
         <v>41014.5</v>
       </c>
     </row>
@@ -4250,10 +4836,10 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="13">
         <v>41014.5</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="13">
         <v>41014.583333333336</v>
       </c>
     </row>
@@ -4261,10 +4847,10 @@
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="13">
         <v>41012.833333333336</v>
       </c>
     </row>
@@ -4272,10 +4858,10 @@
       <c r="A30" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="13">
         <v>41013.583333333336</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="13">
         <v>41014.5</v>
       </c>
     </row>
@@ -4283,10 +4869,10 @@
       <c r="A31" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="13">
         <v>41012.791666666664</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="13">
         <v>41012.833333333336</v>
       </c>
     </row>
@@ -4294,10 +4880,10 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="13">
         <v>41018.833333333336</v>
       </c>
     </row>
@@ -4305,10 +4891,10 @@
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="13">
         <v>41018.833333333336</v>
       </c>
     </row>
@@ -4316,10 +4902,10 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="13">
         <v>41014.583333333336</v>
       </c>
     </row>
@@ -4327,10 +4913,10 @@
       <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="13">
         <v>41013.458333333336</v>
       </c>
     </row>
@@ -4338,10 +4924,10 @@
       <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="13">
         <v>41013.375</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="13">
         <v>41013.583333333336</v>
       </c>
     </row>
@@ -4349,10 +4935,10 @@
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="13">
         <v>41014.375</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="13">
         <v>41014.583333333336</v>
       </c>
     </row>
@@ -4360,10 +4946,10 @@
       <c r="A38" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="13">
         <v>41013.833333333336</v>
       </c>
     </row>
@@ -4371,10 +4957,10 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="13">
         <v>41013.833333333336</v>
       </c>
     </row>
@@ -4382,10 +4968,10 @@
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="13">
         <v>41013.375</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="13">
         <v>41013.541666666664</v>
       </c>
     </row>
@@ -4393,10 +4979,10 @@
       <c r="A41" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="13">
         <v>41013.5</v>
       </c>
     </row>
@@ -4404,10 +4990,10 @@
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="13">
         <v>41013.5</v>
       </c>
     </row>
@@ -4415,10 +5001,10 @@
       <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="13">
         <v>41012.833333333336</v>
       </c>
     </row>
@@ -4426,10 +5012,10 @@
       <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="13">
         <v>41012.833333333336</v>
       </c>
     </row>
@@ -4437,10 +5023,10 @@
       <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="13">
         <v>41012.375</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="13">
         <v>41013.458333333336</v>
       </c>
     </row>
@@ -4448,10 +5034,10 @@
       <c r="A46" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="13">
         <v>41012.791666666664</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="13">
         <v>41012.833333333336</v>
       </c>
     </row>
@@ -4459,10 +5045,10 @@
       <c r="A47" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="13">
         <v>41019.375</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="13">
         <v>41025.958333333336</v>
       </c>
     </row>
@@ -4470,10 +5056,10 @@
       <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="13">
         <v>41020.625</v>
       </c>
     </row>
@@ -4481,10 +5067,10 @@
       <c r="A49" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="13">
         <v>41020.625</v>
       </c>
     </row>
@@ -4492,10 +5078,10 @@
       <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4503,10 +5089,10 @@
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="13">
         <v>41019.958333333336</v>
       </c>
     </row>
@@ -4514,10 +5100,10 @@
       <c r="A52" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="13">
         <v>41020.5</v>
       </c>
     </row>
@@ -4525,10 +5111,10 @@
       <c r="A53" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="13">
         <v>41019.875</v>
       </c>
     </row>
@@ -4536,10 +5122,10 @@
       <c r="A54" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="13">
         <v>41019.875</v>
       </c>
     </row>
@@ -4547,10 +5133,10 @@
       <c r="A55" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="13">
         <v>41020.625</v>
       </c>
     </row>
@@ -4558,10 +5144,10 @@
       <c r="A56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="13">
         <v>41019.875</v>
       </c>
     </row>
@@ -4569,10 +5155,10 @@
       <c r="A57" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="13">
         <v>41019.833333333336</v>
       </c>
     </row>
@@ -4580,10 +5166,10 @@
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="13">
         <v>41020.541666666664</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="13">
         <v>41021.791666666664</v>
       </c>
     </row>
@@ -4591,10 +5177,10 @@
       <c r="A59" t="s">
         <v>212</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="13">
         <v>41020.541666666664</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="13">
         <v>41020.791666666664</v>
       </c>
     </row>
@@ -4602,10 +5188,10 @@
       <c r="A60" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="13">
         <v>41020.541666666664</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="13">
         <v>41021.458333333336</v>
       </c>
     </row>
@@ -4613,10 +5199,10 @@
       <c r="A61" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="13">
         <v>41021.458333333336</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="13">
         <v>41021.791666666664</v>
       </c>
     </row>
@@ -4624,10 +5210,10 @@
       <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="13">
         <v>41021.791666666664</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="13">
         <v>41023.916666666664</v>
       </c>
     </row>
@@ -4635,10 +5221,10 @@
       <c r="A63" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="13">
         <v>41021.791666666664</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="13">
         <v>41023.916666666664</v>
       </c>
     </row>
@@ -4646,10 +5232,10 @@
       <c r="A64" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="13">
         <v>41021.791666666664</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="13">
         <v>41021.791666666664</v>
       </c>
     </row>
@@ -4657,10 +5243,10 @@
       <c r="A65" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="13">
         <v>41019.375</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4668,10 +5254,10 @@
       <c r="A66" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="13">
         <v>41019.375</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4679,10 +5265,10 @@
       <c r="A67" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="13">
         <v>41019.375</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="13">
         <v>41019.875</v>
       </c>
     </row>
@@ -4690,10 +5276,10 @@
       <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4701,10 +5287,10 @@
       <c r="A69" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="13">
         <v>41025.375</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="13">
         <v>41025.916666666664</v>
       </c>
     </row>
@@ -4712,10 +5298,10 @@
       <c r="A70" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="13">
         <v>41025.375</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="13">
         <v>41025.916666666664</v>
       </c>
     </row>
@@ -4723,10 +5309,10 @@
       <c r="A71" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="13">
         <v>41025.375</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="13">
         <v>41025.875</v>
       </c>
     </row>
@@ -4734,10 +5320,10 @@
       <c r="A72" t="s">
         <v>238</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="13">
         <v>41021.708333333336</v>
       </c>
     </row>
@@ -4745,10 +5331,10 @@
       <c r="A73" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="13">
         <v>41020.458333333336</v>
       </c>
     </row>
@@ -4756,10 +5342,10 @@
       <c r="A74" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4767,10 +5353,10 @@
       <c r="A75" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4778,10 +5364,10 @@
       <c r="A76" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="13">
         <v>41021.708333333336</v>
       </c>
     </row>
@@ -4789,10 +5375,10 @@
       <c r="A77" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="13">
         <v>41019.833333333336</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="13">
         <v>41019.916666666664</v>
       </c>
     </row>
@@ -4800,10 +5386,10 @@
       <c r="A78" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="13">
         <v>41024.791666666664</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="13">
         <v>41025.958333333336</v>
       </c>
     </row>
@@ -4811,10 +5397,10 @@
       <c r="A79" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="13">
         <v>41026.375</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="13">
         <v>41032.875</v>
       </c>
     </row>
@@ -4822,10 +5408,10 @@
       <c r="A80" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="13">
         <v>41026.375</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="13">
         <v>41027.583333333336</v>
       </c>
     </row>
@@ -4833,10 +5419,10 @@
       <c r="A81" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4844,10 +5430,10 @@
       <c r="A82" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="13">
         <v>41026.875</v>
       </c>
     </row>
@@ -4855,10 +5441,10 @@
       <c r="A83" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4866,10 +5452,10 @@
       <c r="A84" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4877,10 +5463,10 @@
       <c r="A85" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4888,10 +5474,10 @@
       <c r="A86" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4899,10 +5485,10 @@
       <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -4910,10 +5496,10 @@
       <c r="A88" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="13">
         <v>41027.583333333336</v>
       </c>
     </row>
@@ -4921,10 +5507,10 @@
       <c r="A89" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="13">
         <v>41026.375</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="13">
         <v>41026.375</v>
       </c>
     </row>
@@ -4932,10 +5518,10 @@
       <c r="A90" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="13">
         <v>41027.583333333336</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="13">
         <v>41027.708333333336</v>
       </c>
     </row>
@@ -4943,10 +5529,10 @@
       <c r="A91" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="13">
         <v>41027.583333333336</v>
       </c>
-      <c r="C91" s="20">
+      <c r="C91" s="13">
         <v>41027.708333333336</v>
       </c>
     </row>
@@ -4954,10 +5540,10 @@
       <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="13">
         <v>41027.583333333336</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="13">
         <v>41027.708333333336</v>
       </c>
     </row>
@@ -4965,10 +5551,10 @@
       <c r="A93" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="13">
         <v>41027.708333333336</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="13">
         <v>41027.833333333336</v>
       </c>
     </row>
@@ -4976,10 +5562,10 @@
       <c r="A94" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="13">
         <v>41027.708333333336</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="13">
         <v>41027.833333333336</v>
       </c>
     </row>
@@ -4987,10 +5573,10 @@
       <c r="A95" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="13">
         <v>41027.708333333336</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="13">
         <v>41027.708333333336</v>
       </c>
     </row>
@@ -4998,10 +5584,10 @@
       <c r="A96" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C96" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5009,10 +5595,10 @@
       <c r="A97" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5020,10 +5606,10 @@
       <c r="A98" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="13">
         <v>41032.791666666664</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C98" s="13">
         <v>41032.875</v>
       </c>
     </row>
@@ -5031,10 +5617,10 @@
       <c r="A99" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="13">
         <v>41032.791666666664</v>
       </c>
-      <c r="C99" s="20">
+      <c r="C99" s="13">
         <v>41032.875</v>
       </c>
     </row>
@@ -5042,10 +5628,10 @@
       <c r="A100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="13">
         <v>41032.791666666664</v>
       </c>
-      <c r="C100" s="20">
+      <c r="C100" s="13">
         <v>41032.833333333336</v>
       </c>
     </row>
@@ -5053,10 +5639,10 @@
       <c r="A101" t="s">
         <v>238</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C101" s="13">
         <v>41026.958333333336</v>
       </c>
     </row>
@@ -5064,10 +5650,10 @@
       <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C102" s="13">
         <v>41026.958333333336</v>
       </c>
     </row>
@@ -5075,10 +5661,10 @@
       <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C103" s="13">
         <v>41026.916666666664</v>
       </c>
     </row>
@@ -5086,10 +5672,10 @@
       <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="20">
+      <c r="B104" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C104" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5097,10 +5683,10 @@
       <c r="A105" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="20">
+      <c r="B105" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C105" s="20">
+      <c r="C105" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5108,10 +5694,10 @@
       <c r="A106" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="20">
+      <c r="B106" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C106" s="20">
+      <c r="C106" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5119,10 +5705,10 @@
       <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="20">
+      <c r="B107" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C107" s="20">
+      <c r="C107" s="13">
         <v>41026.833333333336</v>
       </c>
     </row>
@@ -5130,10 +5716,10 @@
       <c r="A108" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="13">
         <v>41026.791666666664</v>
       </c>
-      <c r="C108" s="20">
+      <c r="C108" s="13">
         <v>41027.583333333336</v>
       </c>
     </row>
@@ -5141,10 +5727,10 @@
       <c r="A109" t="s">
         <v>116</v>
       </c>
-      <c r="B109" s="20">
+      <c r="B109" s="13">
         <v>41032.375</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="13">
         <v>41032.375</v>
       </c>
     </row>
@@ -5152,10 +5738,10 @@
       <c r="A110" t="s">
         <v>215</v>
       </c>
-      <c r="B110" s="20">
+      <c r="B110" s="13">
         <v>41033.375</v>
       </c>
-      <c r="C110" s="20">
+      <c r="C110" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -5163,10 +5749,10 @@
       <c r="A111" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="20">
+      <c r="B111" s="13">
         <v>41033.375</v>
       </c>
-      <c r="C111" s="20">
+      <c r="C111" s="13">
         <v>41039.875</v>
       </c>
     </row>
@@ -5174,10 +5760,10 @@
       <c r="A112" t="s">
         <v>67</v>
       </c>
-      <c r="B112" s="20">
+      <c r="B112" s="13">
         <v>41033.375</v>
       </c>
-      <c r="C112" s="20">
+      <c r="C112" s="13">
         <v>41035.666666666664</v>
       </c>
     </row>
@@ -5185,10 +5771,10 @@
       <c r="A113" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="20">
+      <c r="B113" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C113" s="20">
+      <c r="C113" s="13">
         <v>41033.958333333336</v>
       </c>
     </row>
@@ -5196,10 +5782,10 @@
       <c r="A114" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="20">
+      <c r="B114" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C114" s="20">
+      <c r="C114" s="13">
         <v>41035.666666666664</v>
       </c>
     </row>
@@ -5207,10 +5793,10 @@
       <c r="A115" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C115" s="20">
+      <c r="C115" s="13">
         <v>41035.666666666664</v>
       </c>
     </row>
@@ -5218,10 +5804,10 @@
       <c r="A116" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C116" s="20">
+      <c r="C116" s="13">
         <v>41035.666666666664</v>
       </c>
     </row>
@@ -5229,10 +5815,10 @@
       <c r="A117" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="20">
+      <c r="B117" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="13">
         <v>41035.458333333336</v>
       </c>
     </row>
@@ -5240,10 +5826,10 @@
       <c r="A118" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="13">
         <v>41033.375</v>
       </c>
-      <c r="C118" s="20">
+      <c r="C118" s="13">
         <v>41033.375</v>
       </c>
     </row>
@@ -5251,10 +5837,10 @@
       <c r="A119" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C119" s="20">
+      <c r="C119" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5262,10 +5848,10 @@
       <c r="A120" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C120" s="20">
+      <c r="C120" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5273,10 +5859,10 @@
       <c r="A121" t="s">
         <v>218</v>
       </c>
-      <c r="B121" s="20">
+      <c r="B121" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5284,10 +5870,10 @@
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C122" s="20">
+      <c r="C122" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5295,10 +5881,10 @@
       <c r="A123" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5306,10 +5892,10 @@
       <c r="A124" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="13">
         <v>41033.791666666664</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="13">
         <v>41034.583333333336</v>
       </c>
     </row>
@@ -5317,10 +5903,10 @@
       <c r="A125" t="s">
         <v>238</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="13">
         <v>41039.791666666664</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="13">
         <v>41039.875</v>
       </c>
     </row>
@@ -5328,10 +5914,10 @@
       <c r="A126" t="s">
         <v>109</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B126" s="13">
         <v>41039.791666666664</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="13">
         <v>41039.875</v>
       </c>
     </row>
@@ -5339,10 +5925,10 @@
       <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="20">
+      <c r="B127" s="13">
         <v>41039.791666666664</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="13">
         <v>41039.833333333336</v>
       </c>
     </row>
@@ -5350,10 +5936,10 @@
       <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="20">
+      <c r="B128" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C128" s="20">
+      <c r="C128" s="13">
         <v>41046.875</v>
       </c>
     </row>
@@ -5361,10 +5947,10 @@
       <c r="A129" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="20">
+      <c r="B129" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C129" s="20">
+      <c r="C129" s="13">
         <v>41042.666666666664</v>
       </c>
     </row>
@@ -5372,10 +5958,10 @@
       <c r="A130" t="s">
         <v>219</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B130" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C130" s="20">
+      <c r="C130" s="13">
         <v>41041.583333333336</v>
       </c>
     </row>
@@ -5383,10 +5969,10 @@
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="13">
         <v>41042.666666666664</v>
       </c>
     </row>
@@ -5394,10 +5980,10 @@
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C132" s="20">
+      <c r="C132" s="13">
         <v>41042.666666666664</v>
       </c>
     </row>
@@ -5405,10 +5991,10 @@
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C133" s="20">
+      <c r="C133" s="13">
         <v>41042.666666666664</v>
       </c>
     </row>
@@ -5416,10 +6002,10 @@
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C134" s="20">
+      <c r="C134" s="13">
         <v>41042.458333333336</v>
       </c>
     </row>
@@ -5427,10 +6013,10 @@
       <c r="A135" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="20">
+      <c r="B135" s="13">
         <v>41040.791666666664</v>
       </c>
-      <c r="C135" s="20">
+      <c r="C135" s="13">
         <v>41040.791666666664</v>
       </c>
     </row>
@@ -5438,10 +6024,10 @@
       <c r="A136" t="s">
         <v>124</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C136" s="20">
+      <c r="C136" s="13">
         <v>41044.958333333336</v>
       </c>
     </row>
@@ -5449,10 +6035,10 @@
       <c r="A137" t="s">
         <v>220</v>
       </c>
-      <c r="B137" s="20">
+      <c r="B137" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="13">
         <v>41044.958333333336</v>
       </c>
     </row>
@@ -5460,10 +6046,10 @@
       <c r="A138" t="s">
         <v>221</v>
       </c>
-      <c r="B138" s="20">
+      <c r="B138" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="13">
         <v>41044.958333333336</v>
       </c>
     </row>
@@ -5471,10 +6057,10 @@
       <c r="A139" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="20">
+      <c r="B139" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="13">
         <v>41043.958333333336</v>
       </c>
     </row>
@@ -5482,10 +6068,10 @@
       <c r="A140" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="13">
         <v>41043.958333333336</v>
       </c>
     </row>
@@ -5493,10 +6079,10 @@
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="20">
+      <c r="B141" s="13">
         <v>41042.666666666664</v>
       </c>
-      <c r="C141" s="20">
+      <c r="C141" s="13">
         <v>41043.958333333336</v>
       </c>
     </row>
@@ -5504,10 +6090,10 @@
       <c r="A142" t="s">
         <v>238</v>
       </c>
-      <c r="B142" s="20">
+      <c r="B142" s="13">
         <v>41046.791666666664</v>
       </c>
-      <c r="C142" s="20">
+      <c r="C142" s="13">
         <v>41046.875</v>
       </c>
     </row>
@@ -5515,10 +6101,10 @@
       <c r="A143" t="s">
         <v>109</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="13">
         <v>41046.791666666664</v>
       </c>
-      <c r="C143" s="20">
+      <c r="C143" s="13">
         <v>41046.875</v>
       </c>
     </row>
@@ -5526,10 +6112,10 @@
       <c r="A144" t="s">
         <v>129</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="13">
         <v>41046.791666666664</v>
       </c>
-      <c r="C144" s="20">
+      <c r="C144" s="13">
         <v>41046.833333333336</v>
       </c>
     </row>
@@ -5537,10 +6123,10 @@
       <c r="A145" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="20">
+      <c r="B145" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C145" s="20">
+      <c r="C145" s="13">
         <v>41053.875</v>
       </c>
     </row>
@@ -5548,10 +6134,10 @@
       <c r="A146" t="s">
         <v>67</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C146" s="20">
+      <c r="C146" s="13">
         <v>41049.666666666664</v>
       </c>
     </row>
@@ -5559,10 +6145,10 @@
       <c r="A147" t="s">
         <v>222</v>
       </c>
-      <c r="B147" s="20">
+      <c r="B147" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C147" s="20">
+      <c r="C147" s="13">
         <v>41048.583333333336</v>
       </c>
     </row>
@@ -5570,10 +6156,10 @@
       <c r="A148" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="20">
+      <c r="B148" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C148" s="20">
+      <c r="C148" s="13">
         <v>41049.666666666664</v>
       </c>
     </row>
@@ -5581,10 +6167,10 @@
       <c r="A149" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="20">
+      <c r="B149" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C149" s="20">
+      <c r="C149" s="13">
         <v>41049.666666666664</v>
       </c>
     </row>
@@ -5592,10 +6178,10 @@
       <c r="A150" t="s">
         <v>145</v>
       </c>
-      <c r="B150" s="20">
+      <c r="B150" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C150" s="20">
+      <c r="C150" s="13">
         <v>41049.666666666664</v>
       </c>
     </row>
@@ -5603,10 +6189,10 @@
       <c r="A151" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="20">
+      <c r="B151" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C151" s="20">
+      <c r="C151" s="13">
         <v>41049.458333333336</v>
       </c>
     </row>
@@ -5614,10 +6200,10 @@
       <c r="A152" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="20">
+      <c r="B152" s="13">
         <v>41047.791666666664</v>
       </c>
-      <c r="C152" s="20">
+      <c r="C152" s="13">
         <v>41047.791666666664</v>
       </c>
     </row>
@@ -5625,10 +6211,10 @@
       <c r="A153" t="s">
         <v>124</v>
       </c>
-      <c r="B153" s="20">
+      <c r="B153" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C153" s="20">
+      <c r="C153" s="13">
         <v>41051.958333333336</v>
       </c>
     </row>
@@ -5636,10 +6222,10 @@
       <c r="A154" t="s">
         <v>223</v>
       </c>
-      <c r="B154" s="20">
+      <c r="B154" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C154" s="20">
+      <c r="C154" s="13">
         <v>41051.958333333336</v>
       </c>
     </row>
@@ -5647,10 +6233,10 @@
       <c r="A155" t="s">
         <v>224</v>
       </c>
-      <c r="B155" s="20">
+      <c r="B155" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C155" s="20">
+      <c r="C155" s="13">
         <v>41051.958333333336</v>
       </c>
     </row>
@@ -5658,10 +6244,10 @@
       <c r="A156" t="s">
         <v>148</v>
       </c>
-      <c r="B156" s="20">
+      <c r="B156" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C156" s="20">
+      <c r="C156" s="13">
         <v>41050.958333333336</v>
       </c>
     </row>
@@ -5669,10 +6255,10 @@
       <c r="A157" t="s">
         <v>149</v>
       </c>
-      <c r="B157" s="20">
+      <c r="B157" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C157" s="20">
+      <c r="C157" s="13">
         <v>41050.958333333336</v>
       </c>
     </row>
@@ -5680,10 +6266,10 @@
       <c r="A158" t="s">
         <v>153</v>
       </c>
-      <c r="B158" s="20">
+      <c r="B158" s="13">
         <v>41049.666666666664</v>
       </c>
-      <c r="C158" s="20">
+      <c r="C158" s="13">
         <v>41050.958333333336</v>
       </c>
     </row>
@@ -5691,10 +6277,10 @@
       <c r="A159" t="s">
         <v>238</v>
       </c>
-      <c r="B159" s="20">
+      <c r="B159" s="13">
         <v>41053.791666666664</v>
       </c>
-      <c r="C159" s="20">
+      <c r="C159" s="13">
         <v>41053.875</v>
       </c>
     </row>
@@ -5702,10 +6288,10 @@
       <c r="A160" t="s">
         <v>109</v>
       </c>
-      <c r="B160" s="20">
+      <c r="B160" s="13">
         <v>41053.791666666664</v>
       </c>
-      <c r="C160" s="20">
+      <c r="C160" s="13">
         <v>41053.875</v>
       </c>
     </row>
@@ -5713,10 +6299,10 @@
       <c r="A161" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="20">
+      <c r="B161" s="13">
         <v>41053.791666666664</v>
       </c>
-      <c r="C161" s="20">
+      <c r="C161" s="13">
         <v>41053.833333333336</v>
       </c>
     </row>
@@ -5724,10 +6310,10 @@
       <c r="A162" t="s">
         <v>225</v>
       </c>
-      <c r="B162" s="20">
+      <c r="B162" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C162" s="20">
+      <c r="C162" s="13">
         <v>41060.875</v>
       </c>
     </row>
@@ -5735,10 +6321,10 @@
       <c r="A163" t="s">
         <v>67</v>
       </c>
-      <c r="B163" s="20">
+      <c r="B163" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C163" s="20">
+      <c r="C163" s="13">
         <v>41056.666666666664</v>
       </c>
     </row>
@@ -5746,10 +6332,10 @@
       <c r="A164" t="s">
         <v>226</v>
       </c>
-      <c r="B164" s="20">
+      <c r="B164" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C164" s="20">
+      <c r="C164" s="13">
         <v>41055.583333333336</v>
       </c>
     </row>
@@ -5757,10 +6343,10 @@
       <c r="A165" t="s">
         <v>155</v>
       </c>
-      <c r="B165" s="20">
+      <c r="B165" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C165" s="20">
+      <c r="C165" s="13">
         <v>41056.666666666664</v>
       </c>
     </row>
@@ -5768,10 +6354,10 @@
       <c r="A166" t="s">
         <v>156</v>
       </c>
-      <c r="B166" s="20">
+      <c r="B166" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C166" s="20">
+      <c r="C166" s="13">
         <v>41056.666666666664</v>
       </c>
     </row>
@@ -5779,10 +6365,10 @@
       <c r="A167" t="s">
         <v>157</v>
       </c>
-      <c r="B167" s="20">
+      <c r="B167" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C167" s="20">
+      <c r="C167" s="13">
         <v>41056.666666666664</v>
       </c>
     </row>
@@ -5790,10 +6376,10 @@
       <c r="A168" t="s">
         <v>158</v>
       </c>
-      <c r="B168" s="20">
+      <c r="B168" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C168" s="20">
+      <c r="C168" s="13">
         <v>41056.458333333336</v>
       </c>
     </row>
@@ -5801,10 +6387,10 @@
       <c r="A169" t="s">
         <v>123</v>
       </c>
-      <c r="B169" s="20">
+      <c r="B169" s="13">
         <v>41054.791666666664</v>
       </c>
-      <c r="C169" s="20">
+      <c r="C169" s="13">
         <v>41054.791666666664</v>
       </c>
     </row>
@@ -5812,10 +6398,10 @@
       <c r="A170" t="s">
         <v>124</v>
       </c>
-      <c r="B170" s="20">
+      <c r="B170" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C170" s="20">
+      <c r="C170" s="13">
         <v>41058.958333333336</v>
       </c>
     </row>
@@ -5823,10 +6409,10 @@
       <c r="A171" t="s">
         <v>227</v>
       </c>
-      <c r="B171" s="20">
+      <c r="B171" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C171" s="20">
+      <c r="C171" s="13">
         <v>41058.958333333336</v>
       </c>
     </row>
@@ -5834,10 +6420,10 @@
       <c r="A172" t="s">
         <v>228</v>
       </c>
-      <c r="B172" s="20">
+      <c r="B172" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C172" s="20">
+      <c r="C172" s="13">
         <v>41058.958333333336</v>
       </c>
     </row>
@@ -5845,10 +6431,10 @@
       <c r="A173" t="s">
         <v>161</v>
       </c>
-      <c r="B173" s="20">
+      <c r="B173" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C173" s="20">
+      <c r="C173" s="13">
         <v>41057.958333333336</v>
       </c>
     </row>
@@ -5856,10 +6442,10 @@
       <c r="A174" t="s">
         <v>162</v>
       </c>
-      <c r="B174" s="20">
+      <c r="B174" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C174" s="20">
+      <c r="C174" s="13">
         <v>41057.958333333336</v>
       </c>
     </row>
@@ -5867,10 +6453,10 @@
       <c r="A175" t="s">
         <v>166</v>
       </c>
-      <c r="B175" s="20">
+      <c r="B175" s="13">
         <v>41056.666666666664</v>
       </c>
-      <c r="C175" s="20">
+      <c r="C175" s="13">
         <v>41057.958333333336</v>
       </c>
     </row>
@@ -5878,10 +6464,10 @@
       <c r="A176" t="s">
         <v>238</v>
       </c>
-      <c r="B176" s="20">
+      <c r="B176" s="13">
         <v>41060.791666666664</v>
       </c>
-      <c r="C176" s="20">
+      <c r="C176" s="13">
         <v>41060.875</v>
       </c>
     </row>
@@ -5889,10 +6475,10 @@
       <c r="A177" t="s">
         <v>109</v>
       </c>
-      <c r="B177" s="20">
+      <c r="B177" s="13">
         <v>41060.791666666664</v>
       </c>
-      <c r="C177" s="20">
+      <c r="C177" s="13">
         <v>41060.875</v>
       </c>
     </row>
@@ -5900,10 +6486,10 @@
       <c r="A178" t="s">
         <v>129</v>
       </c>
-      <c r="B178" s="20">
+      <c r="B178" s="13">
         <v>41060.791666666664</v>
       </c>
-      <c r="C178" s="20">
+      <c r="C178" s="13">
         <v>41060.833333333336</v>
       </c>
     </row>
@@ -5911,10 +6497,10 @@
       <c r="A179" t="s">
         <v>168</v>
       </c>
-      <c r="B179" s="20">
+      <c r="B179" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C179" s="20">
+      <c r="C179" s="13">
         <v>41067.875</v>
       </c>
     </row>
@@ -5922,10 +6508,10 @@
       <c r="A180" t="s">
         <v>67</v>
       </c>
-      <c r="B180" s="20">
+      <c r="B180" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C180" s="20">
+      <c r="C180" s="13">
         <v>41063.666666666664</v>
       </c>
     </row>
@@ -5933,10 +6519,10 @@
       <c r="A181" t="s">
         <v>229</v>
       </c>
-      <c r="B181" s="20">
+      <c r="B181" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C181" s="20">
+      <c r="C181" s="13">
         <v>41062.583333333336</v>
       </c>
     </row>
@@ -5944,10 +6530,10 @@
       <c r="A182" t="s">
         <v>169</v>
       </c>
-      <c r="B182" s="20">
+      <c r="B182" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C182" s="20">
+      <c r="C182" s="13">
         <v>41063.666666666664</v>
       </c>
     </row>
@@ -5955,10 +6541,10 @@
       <c r="A183" t="s">
         <v>170</v>
       </c>
-      <c r="B183" s="20">
+      <c r="B183" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C183" s="20">
+      <c r="C183" s="13">
         <v>41063.666666666664</v>
       </c>
     </row>
@@ -5966,10 +6552,10 @@
       <c r="A184" t="s">
         <v>171</v>
       </c>
-      <c r="B184" s="20">
+      <c r="B184" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C184" s="20">
+      <c r="C184" s="13">
         <v>41063.666666666664</v>
       </c>
     </row>
@@ -5977,10 +6563,10 @@
       <c r="A185" t="s">
         <v>172</v>
       </c>
-      <c r="B185" s="20">
+      <c r="B185" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C185" s="20">
+      <c r="C185" s="13">
         <v>41063.458333333336</v>
       </c>
     </row>
@@ -5988,10 +6574,10 @@
       <c r="A186" t="s">
         <v>123</v>
       </c>
-      <c r="B186" s="20">
+      <c r="B186" s="13">
         <v>41061.791666666664</v>
       </c>
-      <c r="C186" s="20">
+      <c r="C186" s="13">
         <v>41061.791666666664</v>
       </c>
     </row>
@@ -5999,10 +6585,10 @@
       <c r="A187" t="s">
         <v>124</v>
       </c>
-      <c r="B187" s="20">
+      <c r="B187" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C187" s="20">
+      <c r="C187" s="13">
         <v>41065.958333333336</v>
       </c>
     </row>
@@ -6010,10 +6596,10 @@
       <c r="A188" t="s">
         <v>230</v>
       </c>
-      <c r="B188" s="20">
+      <c r="B188" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C188" s="20">
+      <c r="C188" s="13">
         <v>41065.958333333336</v>
       </c>
     </row>
@@ -6021,10 +6607,10 @@
       <c r="A189" t="s">
         <v>231</v>
       </c>
-      <c r="B189" s="20">
+      <c r="B189" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C189" s="20">
+      <c r="C189" s="13">
         <v>41065.958333333336</v>
       </c>
     </row>
@@ -6032,10 +6618,10 @@
       <c r="A190" t="s">
         <v>175</v>
       </c>
-      <c r="B190" s="20">
+      <c r="B190" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C190" s="20">
+      <c r="C190" s="13">
         <v>41064.958333333336</v>
       </c>
     </row>
@@ -6043,10 +6629,10 @@
       <c r="A191" t="s">
         <v>176</v>
       </c>
-      <c r="B191" s="20">
+      <c r="B191" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C191" s="20">
+      <c r="C191" s="13">
         <v>41064.958333333336</v>
       </c>
     </row>
@@ -6054,10 +6640,10 @@
       <c r="A192" t="s">
         <v>180</v>
       </c>
-      <c r="B192" s="20">
+      <c r="B192" s="13">
         <v>41063.666666666664</v>
       </c>
-      <c r="C192" s="20">
+      <c r="C192" s="13">
         <v>41064.958333333336</v>
       </c>
     </row>
@@ -6065,10 +6651,10 @@
       <c r="A193" t="s">
         <v>238</v>
       </c>
-      <c r="B193" s="20">
+      <c r="B193" s="13">
         <v>41067.791666666664</v>
       </c>
-      <c r="C193" s="20">
+      <c r="C193" s="13">
         <v>41067.875</v>
       </c>
     </row>
@@ -6076,10 +6662,10 @@
       <c r="A194" t="s">
         <v>109</v>
       </c>
-      <c r="B194" s="20">
+      <c r="B194" s="13">
         <v>41067.791666666664</v>
       </c>
-      <c r="C194" s="20">
+      <c r="C194" s="13">
         <v>41067.875</v>
       </c>
     </row>
@@ -6087,10 +6673,10 @@
       <c r="A195" t="s">
         <v>129</v>
       </c>
-      <c r="B195" s="20">
+      <c r="B195" s="13">
         <v>41067.791666666664</v>
       </c>
-      <c r="C195" s="20">
+      <c r="C195" s="13">
         <v>41067.833333333336</v>
       </c>
     </row>
@@ -6098,10 +6684,10 @@
       <c r="A196" t="s">
         <v>232</v>
       </c>
-      <c r="B196" s="20">
+      <c r="B196" s="13">
         <v>41067.375</v>
       </c>
-      <c r="C196" s="20">
+      <c r="C196" s="13">
         <v>41067.375</v>
       </c>
     </row>
@@ -6109,10 +6695,10 @@
       <c r="A197" t="s">
         <v>182</v>
       </c>
-      <c r="B197" s="20">
+      <c r="B197" s="13">
         <v>41068.375</v>
       </c>
-      <c r="C197" s="20">
+      <c r="C197" s="13">
         <v>41068.375</v>
       </c>
     </row>
@@ -6120,10 +6706,10 @@
       <c r="A198" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="20">
+      <c r="B198" s="13">
         <v>41075.375</v>
       </c>
-      <c r="C198" s="20">
+      <c r="C198" s="13">
         <v>41075.375</v>
       </c>
     </row>
@@ -6131,10 +6717,10 @@
       <c r="A199" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="20">
+      <c r="B199" s="13">
         <v>41081.375</v>
       </c>
-      <c r="C199" s="20">
+      <c r="C199" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -6142,10 +6728,10 @@
       <c r="A200" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="20">
+      <c r="B200" s="13">
         <v>41081.375</v>
       </c>
-      <c r="C200" s="20">
+      <c r="C200" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -6153,10 +6739,10 @@
       <c r="A201" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="20">
+      <c r="B201" s="13">
         <v>41081.375</v>
       </c>
-      <c r="C201" s="20">
+      <c r="C201" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -6164,10 +6750,10 @@
       <c r="A202" t="s">
         <v>237</v>
       </c>
-      <c r="B202" s="20">
+      <c r="B202" s="13">
         <v>41081.375</v>
       </c>
-      <c r="C202" s="20">
+      <c r="C202" s="13">
         <v>41081.375</v>
       </c>
     </row>
@@ -6175,14 +6761,1895 @@
       <c r="A203" t="s">
         <v>236</v>
       </c>
-      <c r="B203" s="20">
+      <c r="B203" s="13">
         <v>41081.375</v>
       </c>
-      <c r="C203" s="20">
+      <c r="C203" s="13">
         <v>41081.375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="E191" sqref="A1:E191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>40997</v>
+      </c>
+      <c r="D2" s="24">
+        <v>41004</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>41005</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41011</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>41012</v>
+      </c>
+      <c r="D19" s="24">
+        <v>41018</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23">
+        <v>4</v>
+      </c>
+      <c r="C43" s="24">
+        <v>41019</v>
+      </c>
+      <c r="D43" s="24">
+        <v>41025</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23">
+        <v>5</v>
+      </c>
+      <c r="C74" s="24">
+        <v>41026</v>
+      </c>
+      <c r="D74" s="24">
+        <v>41032</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="22"/>
+      <c r="B103" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="23">
+        <v>6</v>
+      </c>
+      <c r="C104" s="24">
+        <v>41033</v>
+      </c>
+      <c r="D104" s="24">
+        <v>41039</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="31"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="31"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="31"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="31"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="31"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="31"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="31"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="31"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="31"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="31"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="31"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="31"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="31"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="31"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="31"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="31"/>
+      <c r="B120" s="23">
+        <v>7</v>
+      </c>
+      <c r="C120" s="24">
+        <v>41040</v>
+      </c>
+      <c r="D120" s="24">
+        <v>41046</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="31"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="31"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="31"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="31"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="31"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="31"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="31"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="31"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="31"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="31"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="31"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="31"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="31"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="31"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="31"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="31"/>
+      <c r="B136" s="23">
+        <v>8</v>
+      </c>
+      <c r="C136" s="24">
+        <v>41047</v>
+      </c>
+      <c r="D136" s="24">
+        <v>41053</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="31"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="31"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="31"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="31"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="31"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="31"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="31"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="31"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="31"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="31"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="31"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="31"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="31"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="31"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="31"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="31"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="31"/>
+      <c r="B153" s="23">
+        <v>9</v>
+      </c>
+      <c r="C153" s="24">
+        <v>41054</v>
+      </c>
+      <c r="D153" s="24">
+        <v>41060</v>
+      </c>
+      <c r="E153" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="31"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="31"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="31"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="31"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="31"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="31"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="31"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="31"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="31"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="31"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="31"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="31"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="31"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="31"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="31"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="31"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="31"/>
+      <c r="B170" s="23">
+        <v>10</v>
+      </c>
+      <c r="C170" s="24">
+        <v>41061</v>
+      </c>
+      <c r="D170" s="24">
+        <v>41067</v>
+      </c>
+      <c r="E170" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="31"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="31"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="31"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="31"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="31"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="31"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="31"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="31"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="31"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="31"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="27" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="31"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="31"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="31"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="31"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="31"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="31"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="28"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="31"/>
+      <c r="B187" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+    </row>
+    <row r="188" spans="1:5" ht="36" customHeight="1">
+      <c r="A188" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B188" s="33">
+        <v>11</v>
+      </c>
+      <c r="C188" s="34">
+        <v>41068.375</v>
+      </c>
+      <c r="D188" s="34">
+        <f>C188+6</f>
+        <v>41074.375</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="36" customHeight="1">
+      <c r="A189" s="32"/>
+      <c r="B189" s="33">
+        <v>12</v>
+      </c>
+      <c r="C189" s="34">
+        <v>41075.375</v>
+      </c>
+      <c r="D189" s="34">
+        <f>C189+6</f>
+        <v>41081.375</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="32"/>
+      <c r="B190" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="35"/>
+    </row>
+    <row r="191" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A191" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B191" s="37">
+        <v>13</v>
+      </c>
+      <c r="C191" s="34">
+        <v>41081.375</v>
+      </c>
+      <c r="D191" s="34">
+        <v>41081.375</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" s="38"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E187"/>
+  <mergeCells count="36">
+    <mergeCell ref="C153:C169"/>
+    <mergeCell ref="D153:D169"/>
+    <mergeCell ref="C170:C186"/>
+    <mergeCell ref="D170:D186"/>
+    <mergeCell ref="C104:C119"/>
+    <mergeCell ref="D104:D119"/>
+    <mergeCell ref="C120:C135"/>
+    <mergeCell ref="D120:D135"/>
+    <mergeCell ref="C136:C152"/>
+    <mergeCell ref="D136:D152"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="C19:C42"/>
+    <mergeCell ref="D19:D42"/>
+    <mergeCell ref="B153:B169"/>
+    <mergeCell ref="B170:B186"/>
+    <mergeCell ref="A2:A103"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="C43:C73"/>
+    <mergeCell ref="D43:D73"/>
+    <mergeCell ref="C74:C102"/>
+    <mergeCell ref="D74:D102"/>
+    <mergeCell ref="A104:A187"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="B19:B42"/>
+    <mergeCell ref="B43:B73"/>
+    <mergeCell ref="B74:B102"/>
+    <mergeCell ref="B104:B119"/>
+    <mergeCell ref="B120:B135"/>
+    <mergeCell ref="B136:B152"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/se/Trabajo Profesional/Disciplinas/Gestión del Proyecto/Plan de Iteración.xlsx
+++ b/se/Trabajo Profesional/Disciplinas/Gestión del Proyecto/Plan de Iteración.xlsx
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1ro'!$E$1:$E$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2do'!$B$1:$E$227</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$E$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$E$182</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="376">
   <si>
     <t>Documento de Cruce: Proceso – Actividad – CUN.</t>
   </si>
@@ -855,9 +855,6 @@
     <t>MN - Glosario Organizacional (Preliminar - 2da Revision)</t>
   </si>
   <si>
-    <t>MN - Documento de Cruce: Proceso – Actividad – CUN (Averiguar)</t>
-  </si>
-  <si>
     <t>RE - Documento de Relevamiento (2da Entrevista)</t>
   </si>
   <si>
@@ -870,9 +867,6 @@
     <t>AN - Documento de Investigación (1ra Revision)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Averiguar)</t>
-  </si>
-  <si>
     <t>AC - Plan de Calidad (Revision Final)</t>
   </si>
   <si>
@@ -942,9 +936,6 @@
     <t>MN - Plan de Negocio (Revisión Final)</t>
   </si>
   <si>
-    <t>MN - Documento de Cruce: Proceso – Actividad – CUN (Averiguar) (Revisión Final)</t>
-  </si>
-  <si>
     <t>RE - Especificación de Requerimientos (Revisión Final)</t>
   </si>
   <si>
@@ -954,9 +945,6 @@
     <t>AN - Documento de Investigación (Revisión Final)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Averiguar) (Revisión Final)</t>
-  </si>
-  <si>
     <t>AC - Checklist de verificacion (Revisión Final)</t>
   </si>
   <si>
@@ -996,9 +984,6 @@
     <t>AN - Prototipo de Pantallas (Preliminar)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Preliminar)</t>
-  </si>
-  <si>
     <t>DS - Modelo de Diseño de Clases (Preliminar)</t>
   </si>
   <si>
@@ -1032,9 +1017,6 @@
     <t>AN - Prototipo de Pantallas (1ra Revisión)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (1ra Revisión)</t>
-  </si>
-  <si>
     <t>DS - Modelo de Diseño de Clases (1ra Revisión)</t>
   </si>
   <si>
@@ -1068,9 +1050,6 @@
     <t>AN - Prototipo de Pantallas (2da Revisión)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (2da Revisión)</t>
-  </si>
-  <si>
     <t>DS - Modelo de Diseño de Clases (2da Revisión)</t>
   </si>
   <si>
@@ -1110,9 +1089,6 @@
     <t>AN - Prototipo de Pantallas (3ra Revisión)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (3ra Revisión)</t>
-  </si>
-  <si>
     <t>DS - Modelo de Diseño de Clases (3ra Revisión)</t>
   </si>
   <si>
@@ -1152,9 +1128,6 @@
     <t>AN - Prototipo de Pantallas (Revisión Final)</t>
   </si>
   <si>
-    <t>AN - Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Revisión Final)</t>
-  </si>
-  <si>
     <t>DS - Modelo de Diseño de Clases (Revisión Final)</t>
   </si>
   <si>
@@ -1173,7 +1146,10 @@
     <t>SAD (Documento de Arquitectura de Software) (Revisión Final)</t>
   </si>
   <si>
-    <t>Revisión</t>
+    <t>1ra Revisión antes de la Entrega Final</t>
+  </si>
+  <si>
+    <t>2da Revisión antes de la Entrega Final</t>
   </si>
 </sst>
 </file>
@@ -1408,70 +1384,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,6 +1425,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,16 +1805,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="30">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="28">
         <v>40997.375</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="28">
         <v>41004.791666666664</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1846,41 +1822,41 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="28">
         <v>41005.375</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="28">
         <v>41011.958333333336</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1888,77 +1864,77 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30">
         <v>3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="28">
         <v>41011.791666666664</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="28">
         <v>41017.833333333336</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1966,176 +1942,176 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30">
         <v>4</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="28">
         <v>41018.791666666664</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="28">
         <v>41025.833333333336</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2143,172 +2119,172 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2370,16 +2346,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="32">
         <v>40997.375</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="32">
         <v>41004.791666666664</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2387,68 +2363,68 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="32">
         <v>41004</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="32">
         <v>41011</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -2456,113 +2432,113 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="32">
         <v>41011</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="32">
         <v>41017</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -2570,221 +2546,221 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="19"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="19"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="19"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="19"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="19"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="19"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="19"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="32">
         <v>41017</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="32">
         <v>41025</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -2792,302 +2768,302 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="19"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="19"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="19"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="19"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60">
-      <c r="A61" s="19"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="19"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="19"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="19"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="19"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="19"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="19"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="19"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="19"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="19"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="19"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="19"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="19"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="19"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="19"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="32">
         <v>41026</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="32">
         <v>41032</v>
       </c>
       <c r="E78" s="11" t="s">
@@ -3095,313 +3071,313 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="19"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="19"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30">
-      <c r="A81" s="19"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="19"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="19"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="19"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="19"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="19"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="19"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="19"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="19"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="19"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="60">
-      <c r="A96" s="19"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="19"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="19"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="19"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="19"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="19"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30">
-      <c r="A102" s="19"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="19"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="19"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="19"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="19"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="19"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="19"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="19"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="19"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="19"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
       <c r="E111" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="32">
         <v>41033</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="32">
         <v>41039</v>
       </c>
       <c r="E112" s="11" t="s">
@@ -3409,158 +3385,158 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="20"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
       <c r="E113" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="30">
-      <c r="A114" s="20"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
       <c r="E114" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="20"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="20"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="20"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="20"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
       <c r="E118" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="20"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
       <c r="E119" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45">
-      <c r="A120" s="20"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="20"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
       <c r="E121" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="20"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
       <c r="E122" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="20"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="20"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
       <c r="E124" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="30">
-      <c r="A125" s="20"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
       <c r="E125" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="20"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
       <c r="E126" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30">
-      <c r="A127" s="20"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
       <c r="E127" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="20"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="20"/>
-      <c r="B129" s="18" t="s">
+      <c r="A129" s="34"/>
+      <c r="B129" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="32">
         <v>41040</v>
       </c>
-      <c r="D129" s="17">
+      <c r="D129" s="32">
         <v>41046</v>
       </c>
       <c r="E129" s="11" t="s">
@@ -3568,176 +3544,176 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="20"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
       <c r="E130" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
-      <c r="A131" s="20"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
       <c r="E131" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="20"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
       <c r="E132" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="20"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
       <c r="E133" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="20"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
       <c r="E134" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="20"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
       <c r="E135" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="20"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
       <c r="E136" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="45">
-      <c r="A137" s="20"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
       <c r="E137" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="20"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
       <c r="E138" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="20"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
       <c r="E139" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="20"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
       <c r="E140" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="20"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
       <c r="E141" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="20"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
       <c r="E142" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="20"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
       <c r="E143" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30">
-      <c r="A144" s="20"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
       <c r="E144" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="20"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
       <c r="E145" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
-      <c r="A146" s="20"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
       <c r="E146" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="20"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
       <c r="E147" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="20"/>
-      <c r="B148" s="18" t="s">
+      <c r="A148" s="34"/>
+      <c r="B148" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="32">
         <v>41047</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D148" s="32">
         <v>41053</v>
       </c>
       <c r="E148" s="11" t="s">
@@ -3745,176 +3721,176 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="20"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
       <c r="E149" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
-      <c r="A150" s="20"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
       <c r="E150" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="30">
-      <c r="A151" s="20"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
       <c r="E151" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="20"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="20"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
       <c r="E153" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="20"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
       <c r="E154" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="20"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
       <c r="E155" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="45">
-      <c r="A156" s="20"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
       <c r="E156" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="20"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="20"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
       <c r="E158" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="20"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
       <c r="E159" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="20"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
       <c r="E160" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="20"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
       <c r="E161" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="20"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
       <c r="E162" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="30">
-      <c r="A163" s="20"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
       <c r="E163" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="20"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
       <c r="E164" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30">
-      <c r="A165" s="20"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
       <c r="E165" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="20"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
       <c r="E166" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="20"/>
-      <c r="B167" s="18" t="s">
+      <c r="A167" s="34"/>
+      <c r="B167" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C167" s="32">
         <v>41054</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D167" s="32">
         <v>41060</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -3922,185 +3898,185 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="20"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
       <c r="E168" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30">
-      <c r="A169" s="20"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
       <c r="E169" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="20"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
       <c r="E170" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="20"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
       <c r="E171" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="20"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
       <c r="E172" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="20"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
       <c r="E173" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="20"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
       <c r="E174" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="45">
-      <c r="A175" s="20"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
       <c r="E175" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="20"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
       <c r="E176" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="20"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
       <c r="E177" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="20"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
       <c r="E178" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="20"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
       <c r="E179" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="20"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
       <c r="E180" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="20"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
       <c r="E181" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="30">
-      <c r="A182" s="20"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
       <c r="E182" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="20"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
       <c r="E183" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30">
-      <c r="A184" s="20"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
       <c r="E184" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="20"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
       <c r="E185" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="20"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
       <c r="E186" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="20"/>
-      <c r="B187" s="18" t="s">
+      <c r="A187" s="34"/>
+      <c r="B187" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="17">
+      <c r="C187" s="32">
         <v>41061</v>
       </c>
-      <c r="D187" s="17">
+      <c r="D187" s="32">
         <v>41067</v>
       </c>
       <c r="E187" s="11" t="s">
@@ -4108,185 +4084,185 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="20"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
       <c r="E188" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="30">
-      <c r="A189" s="20"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
       <c r="E189" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="20"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
       <c r="E190" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="20"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
       <c r="E191" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="20"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
       <c r="E192" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="20"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
       <c r="E193" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="20"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
       <c r="E194" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45">
-      <c r="A195" s="20"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
       <c r="E195" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="20"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
       <c r="E196" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="20"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
       <c r="E197" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="20"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
       <c r="E198" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="20"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
       <c r="E199" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="20"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
       <c r="E200" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="20"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
       <c r="E201" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="30">
-      <c r="A202" s="20"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
       <c r="E202" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="20"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
       <c r="E203" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="30">
-      <c r="A204" s="20"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
       <c r="E204" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="20"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
       <c r="E205" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="20"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
       <c r="E206" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="20"/>
-      <c r="B207" s="18" t="s">
+      <c r="A207" s="34"/>
+      <c r="B207" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C207" s="17">
+      <c r="C207" s="32">
         <v>41068</v>
       </c>
-      <c r="D207" s="17">
+      <c r="D207" s="32">
         <v>41074</v>
       </c>
       <c r="E207" s="11" t="s">
@@ -4294,181 +4270,181 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="20"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
       <c r="E208" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="30">
-      <c r="A209" s="20"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
       <c r="E209" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="30">
-      <c r="A210" s="20"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
       <c r="E210" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="20"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
       <c r="E211" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="20"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
       <c r="E212" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="20"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
       <c r="E213" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="20"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
       <c r="E214" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="45">
-      <c r="A215" s="20"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
       <c r="E215" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="20"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
       <c r="E216" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="20"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
       <c r="E217" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="20"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
       <c r="E218" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="20"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
       <c r="E219" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="20"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
       <c r="E220" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="20"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="17"/>
-      <c r="D221" s="17"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
       <c r="E221" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="30">
-      <c r="A222" s="20"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="17"/>
-      <c r="D222" s="17"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
       <c r="E222" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="20"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="17"/>
-      <c r="D223" s="17"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
       <c r="E223" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
-      <c r="A224" s="20"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="17"/>
-      <c r="D224" s="17"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
       <c r="E224" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="20"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
       <c r="E225" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="20"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="17"/>
-      <c r="D226" s="17"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
       <c r="E226" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="20"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="17"/>
-      <c r="D227" s="17"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
       <c r="E227" s="12" t="s">
         <v>199</v>
       </c>
@@ -4479,6 +4455,25 @@
     <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="35">
+    <mergeCell ref="C45:C77"/>
+    <mergeCell ref="D45:D77"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="B21:B44"/>
+    <mergeCell ref="B45:B77"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="C21:C44"/>
+    <mergeCell ref="D21:D44"/>
+    <mergeCell ref="D148:D166"/>
+    <mergeCell ref="B78:B111"/>
+    <mergeCell ref="C78:C111"/>
+    <mergeCell ref="D78:D111"/>
+    <mergeCell ref="B112:B128"/>
+    <mergeCell ref="C112:C128"/>
+    <mergeCell ref="D112:D128"/>
     <mergeCell ref="B207:B227"/>
     <mergeCell ref="C207:C227"/>
     <mergeCell ref="D207:D227"/>
@@ -4495,25 +4490,6 @@
     <mergeCell ref="D129:D147"/>
     <mergeCell ref="B148:B166"/>
     <mergeCell ref="C148:C166"/>
-    <mergeCell ref="D148:D166"/>
-    <mergeCell ref="B78:B111"/>
-    <mergeCell ref="C78:C111"/>
-    <mergeCell ref="D78:D111"/>
-    <mergeCell ref="B112:B128"/>
-    <mergeCell ref="C112:C128"/>
-    <mergeCell ref="D112:D128"/>
-    <mergeCell ref="C45:C77"/>
-    <mergeCell ref="D45:D77"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="B21:B44"/>
-    <mergeCell ref="B45:B77"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="C21:C44"/>
-    <mergeCell ref="D21:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6775,1879 +6751,1798 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="E191" sqref="A1:E191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E182" sqref="A1:E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="41">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35">
+        <v>40997</v>
+      </c>
+      <c r="D2" s="35">
+        <v>41004</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="42"/>
+      <c r="B8" s="41">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35">
+        <v>41005</v>
+      </c>
+      <c r="D8" s="35">
+        <v>41011</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="42"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="42"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35">
+        <v>41012</v>
+      </c>
+      <c r="D19" s="35">
+        <v>41018</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="42"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="42"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="42"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="42"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="42"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="42"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="42"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="42"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="42"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="42"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="42"/>
+      <c r="B43" s="41">
+        <v>4</v>
+      </c>
+      <c r="C43" s="35">
+        <v>41019</v>
+      </c>
+      <c r="D43" s="35">
+        <v>41025</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="42"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="42"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="42"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="42"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="42"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="42"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="42"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="42"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="42"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="42"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="42"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="42"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="42"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="42"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="42"/>
+      <c r="B72" s="41">
+        <v>5</v>
+      </c>
+      <c r="C72" s="35">
+        <v>41026</v>
+      </c>
+      <c r="D72" s="35">
+        <v>41032</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="42"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="42"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="42"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="42"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="42"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="42"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="42"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="42"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="42"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="42"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="42"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="42"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="42"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="42"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="42"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="42"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="42"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="42"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="42"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="42"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="42"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="42"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="42"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="42"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="42"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="42"/>
+      <c r="B99" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="41">
+        <v>6</v>
+      </c>
+      <c r="C100" s="35">
+        <v>41033</v>
+      </c>
+      <c r="D100" s="35">
+        <v>41039</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="43"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="43"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="43"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="43"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="43"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="43"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="43"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="43"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="43"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="43"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="43"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="43"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="43"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="43"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="43"/>
+      <c r="B115" s="41">
+        <v>7</v>
+      </c>
+      <c r="C115" s="35">
+        <v>41040</v>
+      </c>
+      <c r="D115" s="35">
+        <v>41046</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="43"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="43"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="43"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="43"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="43"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="43"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="43"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="43"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="43"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="43"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="43"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="43"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="43"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="43"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="43"/>
+      <c r="B130" s="41">
+        <v>8</v>
+      </c>
+      <c r="C130" s="35">
+        <v>41047</v>
+      </c>
+      <c r="D130" s="35">
+        <v>41053</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="43"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="43"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="43"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="43"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="43"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="43"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="43"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="43"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="43"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="43"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="43"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="43"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="43"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="43"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="43"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="43"/>
+      <c r="B146" s="41">
+        <v>9</v>
+      </c>
+      <c r="C146" s="35">
+        <v>41054</v>
+      </c>
+      <c r="D146" s="35">
+        <v>41060</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="43"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="43"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="43"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="43"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="43"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="43"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="43"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="43"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="43"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="43"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="43"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="43"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="43"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="43"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="43"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="43"/>
+      <c r="B162" s="41">
+        <v>10</v>
+      </c>
+      <c r="C162" s="35">
+        <v>41061</v>
+      </c>
+      <c r="D162" s="35">
+        <v>41067</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="43"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="43"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="43"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="43"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="43"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="43"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="43"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="43"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="43"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="43"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="43"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="43"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="43"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="43"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="43"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="43"/>
+      <c r="B178" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+    </row>
+    <row r="179" spans="1:5" ht="36" customHeight="1">
+      <c r="A179" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B179" s="18">
+        <v>11</v>
+      </c>
+      <c r="C179" s="19">
+        <v>41068.375</v>
+      </c>
+      <c r="D179" s="19">
+        <f>C179+6</f>
+        <v>41074.375</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="36" customHeight="1">
+      <c r="A180" s="39"/>
+      <c r="B180" s="18">
+        <v>12</v>
+      </c>
+      <c r="C180" s="19">
+        <v>41075.375</v>
+      </c>
+      <c r="D180" s="19">
+        <f>C180+6</f>
+        <v>41081.375</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="39"/>
+      <c r="B181" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="40"/>
+    </row>
+    <row r="182" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A182" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24">
-        <v>40997</v>
-      </c>
-      <c r="D2" s="24">
-        <v>41004</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24">
-        <v>41005</v>
-      </c>
-      <c r="D8" s="24">
-        <v>41011</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23">
-        <v>3</v>
-      </c>
-      <c r="C19" s="24">
-        <v>41012</v>
-      </c>
-      <c r="D19" s="24">
-        <v>41018</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23">
-        <v>4</v>
-      </c>
-      <c r="C43" s="24">
-        <v>41019</v>
-      </c>
-      <c r="D43" s="24">
-        <v>41025</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27" t="s">
+      <c r="B182" s="21">
+        <v>13</v>
+      </c>
+      <c r="C182" s="19">
+        <v>41081.375</v>
+      </c>
+      <c r="D182" s="19">
+        <v>41081.375</v>
+      </c>
+      <c r="E182" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23">
-        <v>5</v>
-      </c>
-      <c r="C74" s="24">
-        <v>41026</v>
-      </c>
-      <c r="D74" s="24">
-        <v>41032</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="22"/>
-      <c r="B103" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B104" s="23">
-        <v>6</v>
-      </c>
-      <c r="C104" s="24">
-        <v>41033</v>
-      </c>
-      <c r="D104" s="24">
-        <v>41039</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="31"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="31"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="31"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="31"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="31"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="31"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="31"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="31"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="31"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="31"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="31"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="31"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="31"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="31"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="31"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="31"/>
-      <c r="B120" s="23">
-        <v>7</v>
-      </c>
-      <c r="C120" s="24">
-        <v>41040</v>
-      </c>
-      <c r="D120" s="24">
-        <v>41046</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="31"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="31"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="31"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="31"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="27" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="31"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="31"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="31"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="31"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="31"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="31"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="31"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="31"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="31"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="31"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="31"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="31"/>
-      <c r="B136" s="23">
-        <v>8</v>
-      </c>
-      <c r="C136" s="24">
-        <v>41047</v>
-      </c>
-      <c r="D136" s="24">
-        <v>41053</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="31"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="31"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="31"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="31"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="31"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="31"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="31"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="31"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="31"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="31"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="31"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="31"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="31"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="31"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="31"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="27" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="31"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="31"/>
-      <c r="B153" s="23">
-        <v>9</v>
-      </c>
-      <c r="C153" s="24">
-        <v>41054</v>
-      </c>
-      <c r="D153" s="24">
-        <v>41060</v>
-      </c>
-      <c r="E153" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="31"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="31"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="31"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="31"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="31"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="31"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="31"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="31"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="31"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="31"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="31"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="31"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="31"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="31"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="31"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="31"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="31"/>
-      <c r="B170" s="23">
-        <v>10</v>
-      </c>
-      <c r="C170" s="24">
-        <v>41061</v>
-      </c>
-      <c r="D170" s="24">
-        <v>41067</v>
-      </c>
-      <c r="E170" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="31"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="31"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="31"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="31"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="31"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="27" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="31"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="31"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="31"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="31"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="31"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="27" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="31"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="31"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="27" t="s">
-        <v>381</v>
-      </c>
-    </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="31"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="31"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="31"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="31"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="31"/>
-      <c r="B187" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30"/>
-    </row>
-    <row r="188" spans="1:5" ht="36" customHeight="1">
-      <c r="A188" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B188" s="33">
-        <v>11</v>
-      </c>
-      <c r="C188" s="34">
-        <v>41068.375</v>
-      </c>
-      <c r="D188" s="34">
-        <f>C188+6</f>
-        <v>41074.375</v>
-      </c>
-      <c r="E188" s="27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="36" customHeight="1">
-      <c r="A189" s="32"/>
-      <c r="B189" s="33">
-        <v>12</v>
-      </c>
-      <c r="C189" s="34">
-        <v>41075.375</v>
-      </c>
-      <c r="D189" s="34">
-        <f>C189+6</f>
-        <v>41081.375</v>
-      </c>
-      <c r="E189" s="27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="32"/>
-      <c r="B190" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-    </row>
-    <row r="191" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A191" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B191" s="37">
-        <v>13</v>
-      </c>
-      <c r="C191" s="34">
-        <v>41081.375</v>
-      </c>
-      <c r="D191" s="34">
-        <v>41081.375</v>
-      </c>
-      <c r="E191" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="B192" s="38"/>
+      <c r="B183" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E187"/>
+  <autoFilter ref="A1:E182"/>
   <mergeCells count="36">
-    <mergeCell ref="C153:C169"/>
-    <mergeCell ref="D153:D169"/>
-    <mergeCell ref="C170:C186"/>
-    <mergeCell ref="D170:D186"/>
-    <mergeCell ref="C104:C119"/>
-    <mergeCell ref="D104:D119"/>
-    <mergeCell ref="C120:C135"/>
-    <mergeCell ref="D120:D135"/>
-    <mergeCell ref="C136:C152"/>
-    <mergeCell ref="D136:D152"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="D72:D98"/>
+    <mergeCell ref="A100:A178"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="B19:B42"/>
+    <mergeCell ref="B43:B71"/>
+    <mergeCell ref="B72:B98"/>
+    <mergeCell ref="B100:B114"/>
+    <mergeCell ref="B115:B129"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B181:E181"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C18"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D18"/>
     <mergeCell ref="C19:C42"/>
     <mergeCell ref="D19:D42"/>
-    <mergeCell ref="B153:B169"/>
-    <mergeCell ref="B170:B186"/>
-    <mergeCell ref="A2:A103"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="C43:C73"/>
-    <mergeCell ref="D43:D73"/>
-    <mergeCell ref="C74:C102"/>
-    <mergeCell ref="D74:D102"/>
-    <mergeCell ref="A104:A187"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="B19:B42"/>
-    <mergeCell ref="B43:B73"/>
-    <mergeCell ref="B74:B102"/>
-    <mergeCell ref="B104:B119"/>
-    <mergeCell ref="B120:B135"/>
-    <mergeCell ref="B136:B152"/>
+    <mergeCell ref="B146:B161"/>
+    <mergeCell ref="B162:B177"/>
+    <mergeCell ref="A2:A99"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="C43:C71"/>
+    <mergeCell ref="D43:D71"/>
+    <mergeCell ref="C72:C98"/>
+    <mergeCell ref="C146:C161"/>
+    <mergeCell ref="D146:D161"/>
+    <mergeCell ref="C162:C177"/>
+    <mergeCell ref="D162:D177"/>
+    <mergeCell ref="C100:C114"/>
+    <mergeCell ref="D100:D114"/>
+    <mergeCell ref="C115:C129"/>
+    <mergeCell ref="D115:D129"/>
+    <mergeCell ref="C130:C145"/>
+    <mergeCell ref="D130:D145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
